--- a/biology/Botanique/Friedrich_Franz_Bolle/Friedrich_Franz_Bolle.xlsx
+++ b/biology/Botanique/Friedrich_Franz_Bolle/Friedrich_Franz_Bolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Franz August Albrecht Bolle est un botaniste allemand, né le 13 août 1905 à Potsdam et décédé en 1999.
 </t>
@@ -511,16 +523,52 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Friedrich Franz Bolle est le fils de Friedrich et d’Helene née Albrecht. Il obtient son doctorat à l’université Humboldt de Berlin. Il travaille comme assistant botaniste avec l’Académie des sciences de Berlin puis avec le service de protection des végétaux.
 Il est notamment l’auteur de :
 Eine Übersicht über die Gattung Geum L. und die ihr nahestehenden Gattungen, Dahlem bei Berlin 1933 (Repertorium specierum novarum regni vegetabilis: Beihefte 72) (= Dissertation)
 Resedaceae (1936)
 Theorie der Blattstellung (1939)
-Theorie der Blütenbände (1940)
-Sources
-Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
+Theorie der Blütenbände (1940)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Friedrich_Franz_Bolle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Friedrich_Franz_Bolle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
       </c>
     </row>
